--- a/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B48C54-D573-449B-8C0C-63E5F16483A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1DD0E-9F66-4622-A1F9-D979134196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3197,7 +3197,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A190" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
+      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3362,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.257000000000005</v>
+        <v>86.507000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3372,7 +3372,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.375</v>
+        <v>83.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7682,19 +7682,27 @@
       <c r="A195" s="40">
         <v>44986</v>
       </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="13"/>
+      <c r="B195" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H195" s="39"/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H195" s="39">
+        <v>1</v>
+      </c>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
+      <c r="K195" s="48">
+        <v>44999</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">

--- a/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1DD0E-9F66-4622-A1F9-D979134196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -407,12 +406,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/22,23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -846,7 +848,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -921,7 +922,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -989,7 +989,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1231,7 +1230,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1279,7 +1277,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1320,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1384,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1444,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1510,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1573,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1671,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1730,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1795,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1838,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1913,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2099,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2165,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2223,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2289,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2345,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2420,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2463,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2529,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2585,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2683,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2746,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,25 +2812,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K336" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K336" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2844,13 +2842,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2859,14 +2857,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3170,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3180,7 +3178,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3188,34 +3186,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A190" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A190" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3234,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3258,7 +3256,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3278,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3288,7 +3286,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3301,7 +3299,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3318,7 +3316,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3362,7 +3360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.507000000000005</v>
+        <v>85.757000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3372,12 +3370,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.625</v>
+        <v>84.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3397,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>41106</v>
       </c>
@@ -3419,7 +3417,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>41122</v>
       </c>
@@ -3439,7 +3437,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>41153</v>
@@ -3464,7 +3462,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A103" si="0">EDATE(A13,1)</f>
         <v>41183</v>
@@ -3485,7 +3483,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>41214</v>
@@ -3512,7 +3510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>41244</v>
@@ -3537,7 +3535,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>51</v>
       </c>
@@ -3555,7 +3553,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>41275</v>
@@ -3580,7 +3578,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>41306</v>
@@ -3605,7 +3603,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>41334</v>
@@ -3632,7 +3630,7 @@
         <v>41353</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>55</v>
@@ -3652,7 +3650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>41365</v>
@@ -3679,7 +3677,7 @@
         <v>41379</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>41395</v>
@@ -3706,7 +3704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>59</v>
@@ -3728,7 +3726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -3748,7 +3746,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f>EDATE(A23,1)</f>
         <v>41426</v>
@@ -3769,7 +3767,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>41456</v>
@@ -3794,7 +3792,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -3816,7 +3814,7 @@
         <v>41472</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>62</v>
@@ -3836,7 +3834,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A27,1)</f>
         <v>41487</v>
@@ -3861,7 +3859,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A30,1)</f>
         <v>41518</v>
@@ -3888,7 +3886,7 @@
         <v>41543</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>41548</v>
@@ -3909,7 +3907,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>41579</v>
@@ -3936,7 +3934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>65</v>
@@ -3956,7 +3954,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>41609</v>
@@ -3977,7 +3975,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>67</v>
       </c>
@@ -3995,7 +3993,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>41640</v>
@@ -4022,7 +4020,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>41671</v>
@@ -4049,7 +4047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>54</v>
@@ -4071,7 +4069,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>41699</v>
@@ -4098,7 +4096,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>41730</v>
@@ -4125,7 +4123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>41760</v>
@@ -4152,7 +4150,7 @@
         <v>41781</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>71</v>
@@ -4172,7 +4170,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>41791</v>
@@ -4197,7 +4195,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>41821</v>
@@ -4222,7 +4220,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>41852</v>
@@ -4247,7 +4245,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>41883</v>
@@ -4272,7 +4270,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>41913</v>
@@ -4299,7 +4297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>41944</v>
@@ -4326,7 +4324,7 @@
         <v>41971</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>41974</v>
@@ -4351,7 +4349,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4371,7 +4369,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>76</v>
       </c>
@@ -4389,7 +4387,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>42005</v>
@@ -4416,7 +4414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>42036</v>
@@ -4437,7 +4435,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>42064</v>
@@ -4458,7 +4456,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>42095</v>
@@ -4479,7 +4477,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>42125</v>
@@ -4500,7 +4498,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>42156</v>
@@ -4521,7 +4519,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>42186</v>
@@ -4548,7 +4546,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>42217</v>
@@ -4575,7 +4573,7 @@
         <v>42241</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>42248</v>
@@ -4602,7 +4600,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>42278</v>
@@ -4629,7 +4627,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -4651,7 +4649,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>42309</v>
@@ -4678,7 +4676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>65</v>
@@ -4698,7 +4696,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>54</v>
@@ -4720,7 +4718,7 @@
         <v>42323</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>42339</v>
@@ -4745,7 +4743,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>80</v>
       </c>
@@ -4763,7 +4761,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>42370</v>
@@ -4790,7 +4788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>42401</v>
@@ -4811,7 +4809,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>42430</v>
@@ -4832,7 +4830,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>42461</v>
@@ -4853,7 +4851,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>42491</v>
@@ -4880,7 +4878,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>48</v>
@@ -4902,7 +4900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>42522</v>
@@ -4927,7 +4925,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>42552</v>
@@ -4954,7 +4952,7 @@
         <v>42571</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>42583</v>
@@ -4981,7 +4979,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>42614</v>
@@ -5008,7 +5006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>54</v>
@@ -5030,7 +5028,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>64</v>
@@ -5052,7 +5050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>54</v>
@@ -5074,7 +5072,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A78,1)</f>
         <v>42644</v>
@@ -5101,7 +5099,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A82,1)</f>
         <v>42675</v>
@@ -5128,7 +5126,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>42705</v>
@@ -5153,7 +5151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>70</v>
@@ -5175,7 +5173,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>86</v>
       </c>
@@ -5193,7 +5191,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A84,1)</f>
         <v>42736</v>
@@ -5220,7 +5218,7 @@
         <v>42758</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>65</v>
@@ -5240,7 +5238,7 @@
         <v>42752</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>54</v>
@@ -5262,7 +5260,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>54</v>
@@ -5284,7 +5282,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A87,1)</f>
         <v>42767</v>
@@ -5311,7 +5309,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -5332,7 +5330,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5359,7 +5357,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -5386,7 +5384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -5408,7 +5406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>42887</v>
@@ -5429,7 +5427,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -5450,7 +5448,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -5471,7 +5469,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -5498,7 +5496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A99,1)</f>
         <v>43009</v>
@@ -5525,7 +5523,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>59</v>
@@ -5547,7 +5545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>43040</v>
@@ -5574,7 +5572,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -5599,7 +5597,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>92</v>
@@ -5621,7 +5619,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>93</v>
       </c>
@@ -5639,7 +5637,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A103,1)</f>
         <v>43101</v>
@@ -5666,7 +5664,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>43132</v>
@@ -5693,7 +5691,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A111" si="1">EDATE(A107,1)</f>
         <v>43160</v>
@@ -5718,7 +5716,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>54</v>
@@ -5740,7 +5738,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>43191</v>
@@ -5767,7 +5765,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>43221</v>
@@ -5794,7 +5792,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>48</v>
@@ -5816,7 +5814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>94</v>
@@ -5836,7 +5834,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A111,1)</f>
         <v>43252</v>
@@ -5863,7 +5861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>96</v>
@@ -5883,7 +5881,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>43282</v>
@@ -5904,7 +5902,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" ref="A117:A120" si="2">EDATE(A116,1)</f>
         <v>43313</v>
@@ -5931,7 +5929,7 @@
         <v>43319</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>98</v>
@@ -5951,7 +5949,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="48"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>43344</v>
@@ -5976,7 +5974,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="2"/>
         <v>43374</v>
@@ -6003,7 +6001,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>100</v>
@@ -6023,7 +6021,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="48"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>43405</v>
@@ -6050,7 +6048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>101</v>
@@ -6070,7 +6068,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>43435</v>
@@ -6095,7 +6093,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>103</v>
@@ -6115,7 +6113,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>104</v>
       </c>
@@ -6133,7 +6131,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>43466</v>
@@ -6154,7 +6152,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A127,1)</f>
         <v>43497</v>
@@ -6175,7 +6173,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" ref="A129:A137" si="3">EDATE(A128,1)</f>
         <v>43525</v>
@@ -6202,7 +6200,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="3"/>
         <v>43556</v>
@@ -6229,7 +6227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="3"/>
         <v>43586</v>
@@ -6256,7 +6254,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>54</v>
@@ -6276,7 +6274,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>43617</v>
@@ -6297,7 +6295,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="3"/>
         <v>43647</v>
@@ -6318,7 +6316,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="3"/>
         <v>43678</v>
@@ -6345,7 +6343,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="3"/>
         <v>43709</v>
@@ -6366,7 +6364,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="3"/>
         <v>43739</v>
@@ -6387,7 +6385,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A137,1)</f>
         <v>43770</v>
@@ -6408,7 +6406,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A147" si="4">EDATE(A138,1)</f>
         <v>43800</v>
@@ -6433,7 +6431,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>107</v>
       </c>
@@ -6451,7 +6449,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>43831</v>
@@ -6472,7 +6470,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="4"/>
         <v>43862</v>
@@ -6493,7 +6491,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="4"/>
         <v>43891</v>
@@ -6514,7 +6512,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="4"/>
         <v>43922</v>
@@ -6535,7 +6533,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="4"/>
         <v>43952</v>
@@ -6556,7 +6554,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -6577,7 +6575,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="4"/>
         <v>44013</v>
@@ -6598,7 +6596,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A147,1)</f>
         <v>44044</v>
@@ -6619,7 +6617,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" ref="A149:A158" si="5">EDATE(A148,1)</f>
         <v>44075</v>
@@ -6646,7 +6644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -6667,7 +6665,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -6688,7 +6686,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -6709,7 +6707,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>109</v>
       </c>
@@ -6727,7 +6725,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>44197</v>
@@ -6748,7 +6746,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -6775,7 +6773,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>65</v>
@@ -6795,7 +6793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>44256</v>
@@ -6816,7 +6814,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -6843,7 +6841,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A158,1)</f>
         <v>44317</v>
@@ -6864,7 +6862,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" ref="A160:A164" si="6">EDATE(A159,1)</f>
         <v>44348</v>
@@ -6885,7 +6883,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -6910,7 +6908,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -6931,7 +6929,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -6952,7 +6950,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -6979,7 +6977,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>70</v>
@@ -7001,7 +6999,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>65</v>
@@ -7021,7 +7019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>70</v>
@@ -7043,7 +7041,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A164,1)</f>
         <v>44501</v>
@@ -7070,7 +7068,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A168,1)</f>
         <v>44531</v>
@@ -7097,7 +7095,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
         <v>113</v>
       </c>
@@ -7115,7 +7113,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="48"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>44562</v>
@@ -7140,7 +7138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>54</v>
@@ -7160,7 +7158,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>54</v>
@@ -7180,7 +7178,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A171,1)</f>
         <v>44593</v>
@@ -7205,7 +7203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>70</v>
@@ -7227,7 +7225,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>115</v>
@@ -7249,7 +7247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A174,1)</f>
         <v>44621</v>
@@ -7270,7 +7268,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A189" si="7">EDATE(A177,1)</f>
         <v>44652</v>
@@ -7291,7 +7289,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="7"/>
         <v>44682</v>
@@ -7318,7 +7316,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="15" t="s">
         <v>54</v>
@@ -7340,7 +7338,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>44713</v>
@@ -7367,7 +7365,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>44743</v>
@@ -7394,7 +7392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>44774</v>
@@ -7421,7 +7419,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>54</v>
@@ -7443,7 +7441,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>65</v>
@@ -7463,7 +7461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>54</v>
@@ -7485,7 +7483,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A183,1)</f>
         <v>44805</v>
@@ -7512,7 +7510,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>44835</v>
@@ -7539,7 +7537,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>44866</v>
@@ -7564,7 +7562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A189,1)</f>
         <v>44896</v>
@@ -7585,7 +7583,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="47" t="s">
         <v>123</v>
       </c>
@@ -7603,7 +7601,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192" si="8">EDATE(A190,1)</f>
         <v>44927</v>
@@ -7630,7 +7628,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>44958</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>70</v>
@@ -7678,7 +7676,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>44986</v>
       </c>
@@ -7704,31 +7702,37 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>45017</v>
       </c>
       <c r="B196" s="20"/>
-      <c r="C196" s="13"/>
+      <c r="C196" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G196" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>45047</v>
       </c>
-      <c r="B197" s="20"/>
+      <c r="B197" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="39"/>
+      <c r="D197" s="39">
+        <v>2</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
       <c r="G197" s="13" t="str">
@@ -7738,9 +7742,11 @@
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="20"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>45078</v>
       </c>
@@ -7758,7 +7764,7 @@
       <c r="J198" s="12"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>45108</v>
       </c>
@@ -7776,7 +7782,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>45139</v>
       </c>
@@ -7794,7 +7800,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>45170</v>
       </c>
@@ -7812,7 +7818,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>45200</v>
       </c>
@@ -7830,7 +7836,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>45231</v>
       </c>
@@ -7848,7 +7854,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>45261</v>
       </c>
@@ -7866,7 +7872,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>45292</v>
       </c>
@@ -7884,7 +7890,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>45323</v>
       </c>
@@ -7902,7 +7908,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>45352</v>
       </c>
@@ -7920,7 +7926,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>45383</v>
       </c>
@@ -7938,7 +7944,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>45413</v>
       </c>
@@ -7956,7 +7962,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>45444</v>
       </c>
@@ -7974,7 +7980,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>45474</v>
       </c>
@@ -7992,7 +7998,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>45505</v>
       </c>
@@ -8010,7 +8016,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>45536</v>
       </c>
@@ -8028,7 +8034,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>45566</v>
       </c>
@@ -8046,7 +8052,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>45597</v>
       </c>
@@ -8064,7 +8070,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>45627</v>
       </c>
@@ -8082,7 +8088,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>45658</v>
       </c>
@@ -8100,7 +8106,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>45689</v>
       </c>
@@ -8118,7 +8124,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>45717</v>
       </c>
@@ -8136,7 +8142,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>45748</v>
       </c>
@@ -8154,7 +8160,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>45778</v>
       </c>
@@ -8172,7 +8178,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>45809</v>
       </c>
@@ -8190,7 +8196,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>45839</v>
       </c>
@@ -8208,7 +8214,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>45870</v>
       </c>
@@ -8226,7 +8232,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>45901</v>
       </c>
@@ -8244,7 +8250,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>45931</v>
       </c>
@@ -8262,7 +8268,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>45962</v>
       </c>
@@ -8280,7 +8286,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>45992</v>
       </c>
@@ -8298,7 +8304,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>46023</v>
       </c>
@@ -8316,7 +8322,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>46054</v>
       </c>
@@ -8334,7 +8340,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>46082</v>
       </c>
@@ -8352,7 +8358,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>46113</v>
       </c>
@@ -8370,7 +8376,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>46143</v>
       </c>
@@ -8388,7 +8394,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>46174</v>
       </c>
@@ -8406,7 +8412,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>46204</v>
       </c>
@@ -8424,7 +8430,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>46235</v>
       </c>
@@ -8442,7 +8448,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>46266</v>
       </c>
@@ -8460,7 +8466,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>46296</v>
       </c>
@@ -8478,7 +8484,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>46327</v>
       </c>
@@ -8496,7 +8502,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>46357</v>
       </c>
@@ -8514,7 +8520,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>46388</v>
       </c>
@@ -8532,7 +8538,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>46419</v>
       </c>
@@ -8550,7 +8556,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>46447</v>
       </c>
@@ -8568,7 +8574,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>46478</v>
       </c>
@@ -8586,7 +8592,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>46508</v>
       </c>
@@ -8604,7 +8610,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>46539</v>
       </c>
@@ -8622,7 +8628,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>46569</v>
       </c>
@@ -8640,7 +8646,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>46600</v>
       </c>
@@ -8658,7 +8664,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>46631</v>
       </c>
@@ -8676,7 +8682,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>46661</v>
       </c>
@@ -8694,7 +8700,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>46692</v>
       </c>
@@ -8712,7 +8718,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>46722</v>
       </c>
@@ -8730,7 +8736,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>46753</v>
       </c>
@@ -8748,7 +8754,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>46784</v>
       </c>
@@ -8766,7 +8772,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>46813</v>
       </c>
@@ -8784,7 +8790,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>46844</v>
       </c>
@@ -8802,7 +8808,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>46874</v>
       </c>
@@ -8820,7 +8826,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>46905</v>
       </c>
@@ -8838,7 +8844,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>46935</v>
       </c>
@@ -8856,7 +8862,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>46966</v>
       </c>
@@ -8874,7 +8880,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>46997</v>
       </c>
@@ -8892,7 +8898,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>47027</v>
       </c>
@@ -8910,7 +8916,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>47058</v>
       </c>
@@ -8928,7 +8934,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>47088</v>
       </c>
@@ -8946,7 +8952,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>47119</v>
       </c>
@@ -8964,7 +8970,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>47150</v>
       </c>
@@ -8982,7 +8988,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>47178</v>
       </c>
@@ -9000,7 +9006,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>47209</v>
       </c>
@@ -9018,7 +9024,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>47239</v>
       </c>
@@ -9036,7 +9042,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>47270</v>
       </c>
@@ -9054,7 +9060,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>47300</v>
       </c>
@@ -9072,7 +9078,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>47331</v>
       </c>
@@ -9090,7 +9096,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>47362</v>
       </c>
@@ -9108,7 +9114,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>47392</v>
       </c>
@@ -9126,7 +9132,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>47423</v>
       </c>
@@ -9144,7 +9150,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>47453</v>
       </c>
@@ -9162,7 +9168,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>47484</v>
       </c>
@@ -9180,7 +9186,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>47515</v>
       </c>
@@ -9198,7 +9204,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>47543</v>
       </c>
@@ -9216,7 +9222,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>47574</v>
       </c>
@@ -9234,7 +9240,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>47604</v>
       </c>
@@ -9252,7 +9258,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>47635</v>
       </c>
@@ -9270,7 +9276,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>47665</v>
       </c>
@@ -9288,7 +9294,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>47696</v>
       </c>
@@ -9306,7 +9312,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>47727</v>
       </c>
@@ -9324,7 +9330,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>47757</v>
       </c>
@@ -9342,7 +9348,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>47788</v>
       </c>
@@ -9360,7 +9366,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>47818</v>
       </c>
@@ -9378,7 +9384,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>47849</v>
       </c>
@@ -9396,7 +9402,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>47880</v>
       </c>
@@ -9414,7 +9420,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>47908</v>
       </c>
@@ -9432,7 +9438,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>47939</v>
       </c>
@@ -9450,7 +9456,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>47969</v>
       </c>
@@ -9468,7 +9474,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>48000</v>
       </c>
@@ -9486,7 +9492,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>48030</v>
       </c>
@@ -9504,7 +9510,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>48061</v>
       </c>
@@ -9522,7 +9528,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>48092</v>
       </c>
@@ -9540,7 +9546,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>48122</v>
       </c>
@@ -9558,7 +9564,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>48153</v>
       </c>
@@ -9576,7 +9582,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>48183</v>
       </c>
@@ -9594,7 +9600,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>48214</v>
       </c>
@@ -9612,7 +9618,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>48245</v>
       </c>
@@ -9630,7 +9636,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>48274</v>
       </c>
@@ -9648,7 +9654,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>48305</v>
       </c>
@@ -9666,7 +9672,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>48335</v>
       </c>
@@ -9684,7 +9690,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>48366</v>
       </c>
@@ -9702,7 +9708,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>48396</v>
       </c>
@@ -9720,7 +9726,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>48427</v>
       </c>
@@ -9738,7 +9744,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>48458</v>
       </c>
@@ -9756,7 +9762,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>48488</v>
       </c>
@@ -9774,7 +9780,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>48519</v>
       </c>
@@ -9792,7 +9798,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>48549</v>
       </c>
@@ -9810,7 +9816,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>48580</v>
       </c>
@@ -9828,7 +9834,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>48611</v>
       </c>
@@ -9846,7 +9852,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>48639</v>
       </c>
@@ -9864,7 +9870,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>48670</v>
       </c>
@@ -9882,7 +9888,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>48700</v>
       </c>
@@ -9900,7 +9906,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>48731</v>
       </c>
@@ -9918,7 +9924,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>48761</v>
       </c>
@@ -9936,7 +9942,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>48792</v>
       </c>
@@ -9954,7 +9960,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>48823</v>
       </c>
@@ -9972,7 +9978,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>48853</v>
       </c>
@@ -9990,7 +9996,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>48884</v>
       </c>
@@ -10008,7 +10014,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>48914</v>
       </c>
@@ -10026,7 +10032,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>48945</v>
       </c>
@@ -10044,7 +10050,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>48976</v>
       </c>
@@ -10062,7 +10068,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>49004</v>
       </c>
@@ -10080,7 +10086,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>49035</v>
       </c>
@@ -10098,7 +10104,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>49065</v>
       </c>
@@ -10116,7 +10122,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>49096</v>
       </c>
@@ -10134,7 +10140,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>49126</v>
       </c>
@@ -10152,7 +10158,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>49157</v>
       </c>
@@ -10170,7 +10176,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>49188</v>
       </c>
@@ -10188,7 +10194,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>49218</v>
       </c>
@@ -10206,7 +10212,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>49249</v>
       </c>
@@ -10224,7 +10230,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>49279</v>
       </c>
@@ -10257,10 +10263,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10283,7 +10289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -10291,21 +10297,21 @@
       <selection activeCell="F3" activeCellId="1" sqref="G3 E3:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -10318,7 +10324,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -10373,17 +10379,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10404,7 +10410,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10457,7 +10463,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10483,7 +10489,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10509,7 +10515,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10673,7 +10679,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10715,7 +10721,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10757,7 +10763,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10820,7 +10826,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10883,7 +10889,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10904,7 +10910,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10925,7 +10931,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11051,7 +11057,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11093,7 +11099,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11102,7 +11108,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11111,7 +11117,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11120,7 +11126,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11129,7 +11135,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11138,7 +11144,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11147,7 +11153,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11156,7 +11162,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11165,7 +11171,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11174,7 +11180,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11183,7 +11189,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11192,7 +11198,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11201,7 +11207,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11210,7 +11216,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11219,7 +11225,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11228,7 +11234,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11237,7 +11243,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11246,7 +11252,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11255,7 +11261,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11264,7 +11270,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11273,7 +11279,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11282,7 +11288,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11291,7 +11297,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11300,7 +11306,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11309,7 +11315,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11318,7 +11324,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11327,7 +11333,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11336,7 +11342,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11345,7 +11351,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11354,7 +11360,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>PERIOD</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>SL(6-0-0)</t>
+  </si>
+  <si>
+    <t>5/15-19,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1283,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1326,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1390,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1450,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1516,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1579,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1677,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1736,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1801,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1844,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1919,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2105,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2171,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2229,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2295,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2351,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2426,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2469,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2535,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2591,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2689,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2752,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2818,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K336" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K337" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3190,12 +3196,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K336"/>
+  <dimension ref="A2:K337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A190" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3376,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84.875</v>
+        <v>78.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7747,10 +7753,10 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B198" s="15"/>
+      <c r="A198" s="40"/>
+      <c r="B198" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="C198" s="41"/>
       <c r="D198" s="42"/>
       <c r="E198" s="50"/>
@@ -7759,32 +7765,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H198" s="42"/>
+      <c r="H198" s="42">
+        <v>6</v>
+      </c>
       <c r="I198" s="50"/>
       <c r="J198" s="12"/>
-      <c r="K198" s="15"/>
+      <c r="K198" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H199" s="39"/>
-      <c r="I199" s="9"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B199" s="15"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="42"/>
+      <c r="I199" s="50"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="15"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7802,7 +7812,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7820,7 +7830,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7838,7 +7848,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7856,7 +7866,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7874,7 +7884,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7892,7 +7902,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7910,7 +7920,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7928,7 +7938,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7946,7 +7956,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7964,7 +7974,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7982,7 +7992,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -8000,7 +8010,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -8018,7 +8028,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -8036,7 +8046,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -8054,7 +8064,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -8072,7 +8082,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -8090,7 +8100,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8108,7 +8118,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -8126,7 +8136,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -8144,7 +8154,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -8162,7 +8172,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -8180,7 +8190,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -8198,7 +8208,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -8216,7 +8226,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8234,7 +8244,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8252,7 +8262,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8270,7 +8280,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8288,7 +8298,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8306,7 +8316,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8324,7 +8334,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8342,7 +8352,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -8360,7 +8370,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8378,7 +8388,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -8396,7 +8406,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -8414,7 +8424,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -8432,7 +8442,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8450,7 +8460,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -8468,7 +8478,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8486,7 +8496,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8504,7 +8514,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8522,7 +8532,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8540,7 +8550,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8558,7 +8568,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8576,7 +8586,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8594,7 +8604,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8612,7 +8622,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8630,7 +8640,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8648,7 +8658,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8666,7 +8676,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8684,7 +8694,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8702,7 +8712,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8720,7 +8730,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -8738,7 +8748,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -8756,7 +8766,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -8774,7 +8784,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -8792,7 +8802,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -8810,7 +8820,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -8828,7 +8838,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8846,7 +8856,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8864,7 +8874,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -8882,7 +8892,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -8900,7 +8910,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -8918,7 +8928,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -8936,7 +8946,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -8954,7 +8964,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -8972,7 +8982,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -8990,7 +9000,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9008,7 +9018,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -9026,7 +9036,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -9044,7 +9054,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -9062,7 +9072,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9080,7 +9090,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -9098,7 +9108,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -9116,7 +9126,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -9134,7 +9144,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -9152,7 +9162,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9170,7 +9180,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9188,7 +9198,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -9206,7 +9216,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9224,7 +9234,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -9242,7 +9252,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9260,7 +9270,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -9278,7 +9288,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -9296,7 +9306,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -9314,7 +9324,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -9332,7 +9342,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -9350,7 +9360,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -9368,7 +9378,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -9386,7 +9396,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -9404,7 +9414,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -9422,7 +9432,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9440,7 +9450,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -9458,7 +9468,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -9476,7 +9486,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -9494,7 +9504,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -9512,7 +9522,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -9530,7 +9540,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -9548,7 +9558,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -9566,7 +9576,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -9584,7 +9594,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -9602,7 +9612,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -9620,7 +9630,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -9638,7 +9648,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9656,7 +9666,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -9674,7 +9684,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9692,7 +9702,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9710,7 +9720,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9728,7 +9738,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9746,7 +9756,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9764,7 +9774,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9782,7 +9792,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9800,7 +9810,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9818,7 +9828,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9836,7 +9846,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9854,7 +9864,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9872,7 +9882,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9890,7 +9900,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9908,7 +9918,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9926,7 +9936,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9944,7 +9954,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9962,7 +9972,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9980,7 +9990,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9998,7 +10008,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10016,7 +10026,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -10034,7 +10044,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -10052,7 +10062,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10070,7 +10080,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -10088,7 +10098,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10106,7 +10116,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10124,7 +10134,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10142,7 +10152,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10160,7 +10170,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10178,7 +10188,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10196,7 +10206,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10214,7 +10224,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10232,7 +10242,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10247,6 +10257,24 @@
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
